--- a/result/deepLearning/parameterTuning_04_30_2016.xlsx
+++ b/result/deepLearning/parameterTuning_04_30_2016.xlsx
@@ -84,6 +84,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -101,12 +102,18 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -143,12 +150,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -172,7 +187,7 @@
   <dimension ref="A1:P99"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -230,53 +245,53 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" s="0" t="n">
+      <c r="C2" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D2" s="2" t="n">
         <v>0.1</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="0" t="n">
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>34.6462897</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="2" t="n">
         <v>143.506314</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="2" t="n">
         <v>0.994771652</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="I2" s="3" t="n">
         <v>9.2572132E-122</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="2" t="n">
         <v>0.323347492</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="2" t="n">
         <v>0.977597842</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2" s="2" t="n">
         <v>0.996410942</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" s="2" t="n">
         <v>0.0776488308</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="N2" s="2" t="n">
         <v>0.0206668305</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="O2" s="2" t="n">
         <v>0.00258940145</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="P2" s="2" t="n">
         <v>0.0811718329</v>
       </c>
     </row>
